--- a/projects/relating.xlsx
+++ b/projects/relating.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\100026701\Box Sync\Learning\mit-leadership\projects\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://danaher-my.sharepoint.com/personal/donal_phipps_cytiva_com/Documents/Learning/mit-leadership/projects/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BD53798-97D5-41AE-AA88-60726FFF1617}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{4BD53798-97D5-41AE-AA88-60726FFF1617}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C7007EF6-A6C7-B347-B3AB-61BCC11A9107}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{54437614-3BE4-4678-AB53-B41D9490B76F}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="19200" windowHeight="20040" xr2:uid="{54437614-3BE4-4678-AB53-B41D9490B76F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>dim_name</t>
   </si>
@@ -45,36 +45,41 @@
     <t>relevance</t>
   </si>
   <si>
-    <t>Sensemaking: Open-mindedness</t>
-  </si>
-  <si>
-    <t>Sensemaking: Learning from others</t>
-  </si>
-  <si>
-    <t>Sensemaking: Creating meaning in uncertainty</t>
-  </si>
-  <si>
-    <t>Sensemaking: Experimenting</t>
-  </si>
-  <si>
-    <t>Relating: Inquiring</t>
-  </si>
-  <si>
-    <t>Relating: Influencing and negotiating</t>
-  </si>
-  <si>
-    <t>Relating: Supporting and coaching</t>
-  </si>
-  <si>
-    <t>Relating: Connecting outside</t>
+    <t>Visioning: Framing the vision</t>
+  </si>
+  <si>
+    <t>Visioning: Creating urgency for change</t>
+  </si>
+  <si>
+    <t>Visioning: Building a shared vision</t>
+  </si>
+  <si>
+    <t>Inventing: Execution</t>
+  </si>
+  <si>
+    <t>Inventing: Creating a learning culture</t>
+  </si>
+  <si>
+    <t>Inventing: Making tough decisions</t>
+  </si>
+  <si>
+    <t>Inventing: Managing Change</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -102,8 +107,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -418,21 +424,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EB0DC74-7351-44E4-817E-0FAFEC9CB37A}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="43.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -446,7 +452,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -460,7 +466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -474,7 +480,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -488,75 +494,65 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
         <v>4</v>
       </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
       <c r="D5">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
         <v>1</v>
       </c>
-      <c r="C6">
-        <v>4</v>
-      </c>
       <c r="D6">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
       <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
         <v>2</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
       <c r="D7">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>10</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
         <v>2</v>
       </c>
-      <c r="D8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9">
-        <v>4</v>
-      </c>
-      <c r="C9">
-        <v>3</v>
-      </c>
-      <c r="D9">
-        <v>2</v>
-      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
